--- a/COPsyncPresenceMap.WPF/COPsyncMaps/Colorado/Colorado.xlsx
+++ b/COPsyncPresenceMap.WPF/COPsyncMaps/Colorado/Colorado.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Downloads\COPsyncMaps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amoschini\Documents\COPsyncMaps\Colorado\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -835,154 +835,154 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>13</v>
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>78</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>79</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>81</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>82</v>
+        <v>110</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>47</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>84</v>
+        <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>103</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -995,82 +995,82 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="B22" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="B23" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>91</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>96</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B31" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
@@ -1083,271 +1083,271 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>37</v>
+        <v>121</v>
+      </c>
+      <c r="B33" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B39" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>45</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>109</v>
+        <v>81</v>
       </c>
       <c r="B42" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B44" t="s">
-        <v>48</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="B46" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>115</v>
+        <v>73</v>
       </c>
       <c r="B48" t="s">
-        <v>52</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" t="s">
-        <v>53</v>
+        <v>100</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>117</v>
+        <v>71</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>118</v>
+        <v>87</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B52" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B53" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>121</v>
+        <v>86</v>
       </c>
       <c r="B54" t="s">
-        <v>58</v>
+        <v>22</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B55" t="s">
-        <v>59</v>
+        <v>44</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>123</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>125</v>
-      </c>
-      <c r="B58" t="s">
-        <v>62</v>
+        <v>77</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>126</v>
+        <v>74</v>
       </c>
       <c r="B59" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="B60" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>128</v>
+        <v>94</v>
       </c>
       <c r="B61" t="s">
-        <v>65</v>
+        <v>31</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>129</v>
+        <v>102</v>
       </c>
       <c r="B62" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:E59">
-    <sortCondition ref="A2:A59"/>
+  <sortState ref="A2:E65">
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
